--- a/Timetable/Copy of output.xlsx
+++ b/Timetable/Copy of output.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\f\Documents\Visual Studio\TTSS\Timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opsi Jay\Documents\Visual Studio 2017\Projects\Timetable\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE3A5EC1-88D4-4CA7-8676-56FA000ABA7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="265">
   <si>
     <t>Monday</t>
   </si>
@@ -68,9 +69,6 @@
     <t>e305</t>
   </si>
   <si>
-    <t>e304</t>
-  </si>
-  <si>
     <t>e303</t>
   </si>
   <si>
@@ -168,12 +166,666 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>lab102</t>
+  </si>
+  <si>
+    <t>z123</t>
+  </si>
+  <si>
+    <t>f001</t>
+  </si>
+  <si>
+    <t>e302</t>
+  </si>
+  <si>
+    <t>s004</t>
+  </si>
+  <si>
+    <t>s028</t>
+  </si>
+  <si>
+    <t>z321</t>
+  </si>
+  <si>
+    <t>f002</t>
+  </si>
+  <si>
+    <t>e304(l)</t>
+  </si>
+  <si>
+    <t>lab204</t>
+  </si>
+  <si>
+    <t>lab332</t>
+  </si>
+  <si>
+    <t>MyLab</t>
+  </si>
+  <si>
+    <t>cbg101</t>
+  </si>
+  <si>
+    <t>eng200</t>
+  </si>
+  <si>
+    <t>bcm401</t>
+  </si>
+  <si>
+    <t>fre100</t>
+  </si>
+  <si>
+    <t>cbg203</t>
+  </si>
+  <si>
+    <t>bcm202</t>
+  </si>
+  <si>
+    <t>mat128</t>
+  </si>
+  <si>
+    <t>eng328</t>
+  </si>
+  <si>
+    <t>mtx301</t>
+  </si>
+  <si>
+    <t>chm127</t>
+  </si>
+  <si>
+    <t>chm328</t>
+  </si>
+  <si>
+    <t>chm200</t>
+  </si>
+  <si>
+    <t>cbg102</t>
+  </si>
+  <si>
+    <t>chm400</t>
+  </si>
+  <si>
+    <t>fre102</t>
+  </si>
+  <si>
+    <t>eng127</t>
+  </si>
+  <si>
+    <t>cbg200</t>
+  </si>
+  <si>
+    <t>bcm216</t>
+  </si>
+  <si>
+    <t>eng220</t>
+  </si>
+  <si>
+    <t>mtx300</t>
+  </si>
+  <si>
+    <t>bcm501</t>
+  </si>
+  <si>
+    <t>chm327</t>
+  </si>
+  <si>
+    <t>phs316</t>
+  </si>
+  <si>
+    <t>eng516</t>
+  </si>
+  <si>
+    <t>chm100</t>
+  </si>
+  <si>
+    <t>mtx400</t>
+  </si>
+  <si>
+    <t>cbg103</t>
+  </si>
+  <si>
+    <t>fre120</t>
+  </si>
+  <si>
+    <t>bcm227</t>
+  </si>
+  <si>
+    <t>mtx302</t>
+  </si>
+  <si>
+    <t>cbg228</t>
+  </si>
+  <si>
+    <t>phs300</t>
+  </si>
+  <si>
+    <t>chm101</t>
+  </si>
+  <si>
+    <t>chm201</t>
+  </si>
+  <si>
+    <t>chm301</t>
+  </si>
+  <si>
+    <t>bcm300</t>
+  </si>
+  <si>
+    <t>eng100</t>
+  </si>
+  <si>
+    <t>bcm228</t>
+  </si>
+  <si>
+    <t>chm300</t>
+  </si>
+  <si>
+    <t>eng300</t>
+  </si>
+  <si>
+    <t>bcm128</t>
+  </si>
+  <si>
+    <t>fre101</t>
+  </si>
+  <si>
+    <t>fre328</t>
+  </si>
+  <si>
+    <t>cbg128</t>
+  </si>
+  <si>
+    <t>eng201</t>
+  </si>
+  <si>
+    <t>mtx320</t>
+  </si>
+  <si>
+    <t>mtx416</t>
+  </si>
+  <si>
+    <t>cbg220</t>
+  </si>
+  <si>
+    <t>eng501</t>
+  </si>
+  <si>
+    <t>bcm327</t>
+  </si>
+  <si>
+    <t>fre300</t>
+  </si>
+  <si>
+    <t>mtx328</t>
+  </si>
+  <si>
+    <t>cbg100</t>
+  </si>
+  <si>
+    <t>chm116</t>
+  </si>
+  <si>
+    <t>chm227</t>
+  </si>
+  <si>
+    <t>bcm416</t>
+  </si>
+  <si>
+    <t>mat120</t>
+  </si>
+  <si>
+    <t>bcm200</t>
+  </si>
+  <si>
+    <t>cbg201</t>
+  </si>
+  <si>
+    <t>eng500</t>
+  </si>
+  <si>
+    <t>fre121</t>
+  </si>
+  <si>
+    <t>chm220</t>
+  </si>
+  <si>
+    <t>cbg328</t>
+  </si>
+  <si>
+    <t>chm316</t>
+  </si>
+  <si>
+    <t>mat228</t>
+  </si>
+  <si>
+    <t>mbg228</t>
+  </si>
+  <si>
+    <t>phs201</t>
+  </si>
+  <si>
+    <t>phs320</t>
+  </si>
+  <si>
+    <t>mat220</t>
+  </si>
+  <si>
+    <t>bcm516</t>
+  </si>
+  <si>
+    <t>mbg220</t>
+  </si>
+  <si>
+    <t>bcm420</t>
+  </si>
+  <si>
+    <t>mtx101</t>
+  </si>
+  <si>
+    <t>mtx427</t>
+  </si>
+  <si>
+    <t>chm120</t>
+  </si>
+  <si>
+    <t>chm420</t>
+  </si>
+  <si>
+    <t>eng101</t>
+  </si>
+  <si>
+    <t>mat428</t>
+  </si>
+  <si>
+    <t>mtx127</t>
+  </si>
+  <si>
+    <t>bcm400</t>
+  </si>
+  <si>
+    <t>mtx420</t>
+  </si>
+  <si>
+    <t>bcm100</t>
+  </si>
+  <si>
+    <t>mat102</t>
+  </si>
+  <si>
+    <t>mat301</t>
+  </si>
+  <si>
+    <t>cbg300</t>
+  </si>
+  <si>
+    <t>mat221</t>
+  </si>
+  <si>
+    <t>mat401</t>
+  </si>
+  <si>
+    <t>mtx428</t>
+  </si>
+  <si>
+    <t>mbg200</t>
+  </si>
+  <si>
+    <t>bcm316</t>
+  </si>
+  <si>
+    <t>phs116</t>
+  </si>
+  <si>
+    <t>phs328</t>
+  </si>
+  <si>
+    <t>eng227</t>
+  </si>
+  <si>
+    <t>eng316</t>
+  </si>
+  <si>
+    <t>eng400</t>
+  </si>
+  <si>
+    <t>phs427</t>
+  </si>
+  <si>
+    <t>mat420</t>
+  </si>
+  <si>
+    <t>eng327</t>
+  </si>
+  <si>
+    <t>mtx100</t>
+  </si>
+  <si>
+    <t>mbg203</t>
+  </si>
+  <si>
+    <t>chm401</t>
+  </si>
+  <si>
+    <t>fre200</t>
+  </si>
+  <si>
+    <t>cbg303</t>
+  </si>
+  <si>
+    <t>mbg320</t>
+  </si>
+  <si>
+    <t>bcm127</t>
+  </si>
+  <si>
+    <t>mbg400</t>
+  </si>
+  <si>
+    <t>phs101</t>
+  </si>
+  <si>
+    <t>phs416</t>
+  </si>
+  <si>
+    <t>mtx120</t>
+  </si>
+  <si>
+    <t>eng420</t>
+  </si>
+  <si>
+    <t>phs400</t>
+  </si>
+  <si>
+    <t>bcm201</t>
+  </si>
+  <si>
+    <t>phs128</t>
+  </si>
+  <si>
+    <t>mbg221</t>
+  </si>
+  <si>
+    <t>bcm120</t>
+  </si>
+  <si>
+    <t>phs420</t>
+  </si>
+  <si>
+    <t>eng427</t>
+  </si>
+  <si>
+    <t>phs100</t>
+  </si>
+  <si>
+    <t>eng102</t>
+  </si>
+  <si>
+    <t>phs401</t>
+  </si>
+  <si>
+    <t>mtx116</t>
+  </si>
+  <si>
+    <t>mtx201</t>
+  </si>
+  <si>
+    <t>bcm427</t>
+  </si>
+  <si>
+    <t>mat200</t>
+  </si>
+  <si>
+    <t>mtx216</t>
+  </si>
+  <si>
+    <t>bcm102</t>
+  </si>
+  <si>
+    <t>bcm500</t>
+  </si>
+  <si>
+    <t>mtx128</t>
+  </si>
+  <si>
+    <t>mat201</t>
+  </si>
+  <si>
+    <t>mbg201</t>
+  </si>
+  <si>
+    <t>mat202</t>
+  </si>
+  <si>
+    <t>bcm101</t>
+  </si>
+  <si>
+    <t>mtx220</t>
+  </si>
+  <si>
+    <t>phs127</t>
+  </si>
+  <si>
+    <t>bcm301</t>
+  </si>
+  <si>
+    <t>eng228</t>
+  </si>
+  <si>
+    <t>fre301</t>
+  </si>
+  <si>
+    <t>phs120</t>
+  </si>
+  <si>
+    <t>mtx200</t>
+  </si>
+  <si>
+    <t>eng128</t>
+  </si>
+  <si>
+    <t>eng301</t>
+  </si>
+  <si>
+    <t>eng401</t>
+  </si>
+  <si>
+    <t>fre302</t>
+  </si>
+  <si>
+    <t>bcm520</t>
+  </si>
+  <si>
+    <t>eng416</t>
+  </si>
+  <si>
+    <t>mtx227</t>
+  </si>
+  <si>
+    <t>mtx401</t>
+  </si>
+  <si>
+    <t>chm216</t>
+  </si>
+  <si>
+    <t>chm320</t>
+  </si>
+  <si>
+    <t>eng428</t>
+  </si>
+  <si>
+    <t>chm302</t>
+  </si>
+  <si>
+    <t>bcm116</t>
+  </si>
+  <si>
+    <t>bcm527</t>
+  </si>
+  <si>
+    <t>mat100</t>
+  </si>
+  <si>
+    <t>chm228</t>
+  </si>
+  <si>
+    <t>mbg301</t>
+  </si>
+  <si>
+    <t>mbg401</t>
+  </si>
+  <si>
+    <t>eng116</t>
+  </si>
+  <si>
+    <t>mbg321</t>
+  </si>
+  <si>
+    <t>mtx500</t>
+  </si>
+  <si>
+    <t>mbg328</t>
+  </si>
+  <si>
+    <t>phs327</t>
+  </si>
+  <si>
+    <t>eng120</t>
+  </si>
+  <si>
+    <t>cbg202</t>
+  </si>
+  <si>
+    <t>bcm220</t>
+  </si>
+  <si>
+    <t>mbg128</t>
+  </si>
+  <si>
+    <t>cbg219</t>
+  </si>
+  <si>
+    <t>mbg100</t>
+  </si>
+  <si>
+    <t>mbg101</t>
+  </si>
+  <si>
+    <t>cbg302</t>
+  </si>
+  <si>
+    <t>cbg321</t>
+  </si>
+  <si>
+    <t>mbg416</t>
+  </si>
+  <si>
+    <t>mbg303</t>
+  </si>
+  <si>
+    <t>fre201</t>
+  </si>
+  <si>
+    <t>cbg221</t>
+  </si>
+  <si>
+    <t>phs216</t>
+  </si>
+  <si>
+    <t>mbg302</t>
+  </si>
+  <si>
+    <t>cbg301</t>
+  </si>
+  <si>
+    <t>phs227</t>
+  </si>
+  <si>
+    <t>eng216</t>
+  </si>
+  <si>
+    <t>eng520</t>
+  </si>
+  <si>
+    <t>mtx316</t>
+  </si>
+  <si>
+    <t>cbg320</t>
+  </si>
+  <si>
+    <t>phs200</t>
+  </si>
+  <si>
+    <t>mtx327</t>
+  </si>
+  <si>
+    <t>mat101</t>
+  </si>
+  <si>
+    <t>mat103</t>
+  </si>
+  <si>
+    <t>mtx527</t>
+  </si>
+  <si>
+    <t>mat121</t>
+  </si>
+  <si>
+    <t>fre228</t>
+  </si>
+  <si>
+    <t>bcm402</t>
+  </si>
+  <si>
+    <t>mat402</t>
+  </si>
+  <si>
+    <t>mat119</t>
+  </si>
+  <si>
+    <t>fre202</t>
+  </si>
+  <si>
+    <t>mbg102</t>
+  </si>
+  <si>
+    <t>chm202</t>
+  </si>
+  <si>
+    <t>mtx501</t>
+  </si>
+  <si>
+    <t>fre220</t>
+  </si>
+  <si>
+    <t>cbg121</t>
+  </si>
+  <si>
+    <t>mbg120</t>
+  </si>
+  <si>
+    <t>mbg121</t>
+  </si>
+  <si>
+    <t>fre221</t>
+  </si>
+  <si>
+    <t>mtx516</t>
+  </si>
+  <si>
+    <t>mat203</t>
+  </si>
+  <si>
+    <t>chm128</t>
+  </si>
+  <si>
+    <t>mbg427</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,8 +1136,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -596,81 +1248,162 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" t="s">
+        <v>195</v>
+      </c>
+      <c r="U3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" t="s">
+        <v>212</v>
       </c>
       <c r="Y3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="AB3" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="AC3" t="s">
-        <v>41</v>
+        <v>225</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
+      <c r="Q4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" t="s">
+        <v>138</v>
       </c>
       <c r="Y4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Z4" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s">
-        <v>31</v>
+        <v>138</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -678,394 +1411,2215 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" t="s">
+        <v>155</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>173</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" t="s">
+        <v>190</v>
+      </c>
+      <c r="U5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" t="s">
+        <v>170</v>
+      </c>
+      <c r="W5" t="s">
+        <v>168</v>
       </c>
       <c r="Y5" t="s">
         <v>13</v>
       </c>
       <c r="Z5" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>156</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>163</v>
+      </c>
+      <c r="O6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R6" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" t="s">
+        <v>190</v>
+      </c>
+      <c r="T6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" t="s">
+        <v>202</v>
+      </c>
+      <c r="V6" t="s">
+        <v>208</v>
+      </c>
+      <c r="W6" t="s">
+        <v>132</v>
       </c>
       <c r="Y6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>20</v>
+        <v>173</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" t="s">
+        <v>157</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>96</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>109</v>
+      </c>
+      <c r="T7" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" t="s">
+        <v>203</v>
+      </c>
+      <c r="V7" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" t="s">
+        <v>144</v>
       </c>
       <c r="Y7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="AA7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AB7" t="s">
-        <v>39</v>
+        <v>224</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
+        <v>158</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>174</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" t="s">
+        <v>191</v>
+      </c>
+      <c r="T8" t="s">
+        <v>197</v>
+      </c>
+      <c r="U8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" t="s">
+        <v>213</v>
       </c>
       <c r="Y8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="Z8" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="AA8" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="AB8" t="s">
-        <v>44</v>
+        <v>172</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>114</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" t="s">
+        <v>192</v>
+      </c>
+      <c r="T9" t="s">
+        <v>198</v>
+      </c>
+      <c r="U9" t="s">
+        <v>204</v>
+      </c>
+      <c r="V9" t="s">
+        <v>209</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
       </c>
       <c r="Y9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="AA9" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="AB9" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>180</v>
+      </c>
+      <c r="R10" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s">
+        <v>210</v>
+      </c>
+      <c r="W10" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
         <v>17</v>
       </c>
-      <c r="M10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" t="s">
         <v>26</v>
       </c>
-      <c r="Y10" t="s">
-        <v>17</v>
+      <c r="S11" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" t="s">
+        <v>160</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>166</v>
+      </c>
+      <c r="O12" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S12" t="s">
+        <v>135</v>
+      </c>
+      <c r="T12" t="s">
+        <v>199</v>
+      </c>
+      <c r="U12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>161</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="Q13" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="R13" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="S13" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="T13" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="U13" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="V13" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="W13" t="s">
-        <v>10</v>
+        <v>169</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>162</v>
       </c>
       <c r="M14" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>131</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>182</v>
+      </c>
+      <c r="R14" t="s">
+        <v>188</v>
+      </c>
+      <c r="S14" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" t="s">
+        <v>118</v>
+      </c>
+      <c r="U14" t="s">
+        <v>207</v>
+      </c>
+      <c r="V14" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" t="s">
         <v>34</v>
       </c>
       <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD16" t="s">
         <v>26</v>
       </c>
-      <c r="P16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AE16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
       </c>
       <c r="M17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N18" t="s">
         <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
         <v>16</v>
       </c>
       <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" t="s">
+        <v>249</v>
+      </c>
+      <c r="J24" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>222</v>
+      </c>
+      <c r="R24" t="s">
+        <v>106</v>
+      </c>
+      <c r="S24" t="s">
+        <v>225</v>
+      </c>
+      <c r="T24" t="s">
+        <v>121</v>
+      </c>
+      <c r="U24" t="s">
+        <v>228</v>
+      </c>
+      <c r="V24" t="s">
+        <v>227</v>
+      </c>
+      <c r="W24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" t="s">
+        <v>157</v>
+      </c>
+      <c r="R25" t="s">
+        <v>164</v>
+      </c>
+      <c r="U25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" t="s">
+        <v>124</v>
+      </c>
+      <c r="O26" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T26" t="s">
+        <v>221</v>
+      </c>
+      <c r="U26" t="s">
+        <v>95</v>
+      </c>
+      <c r="V26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>219</v>
+      </c>
+      <c r="P27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" t="s">
+        <v>155</v>
+      </c>
+      <c r="S27" t="s">
+        <v>175</v>
+      </c>
+      <c r="T27" t="s">
+        <v>104</v>
+      </c>
+      <c r="U27" t="s">
+        <v>110</v>
+      </c>
+      <c r="V27" t="s">
+        <v>215</v>
+      </c>
+      <c r="W27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" t="s">
+        <v>164</v>
+      </c>
+      <c r="S28" t="s">
+        <v>226</v>
+      </c>
+      <c r="T28" t="s">
+        <v>231</v>
+      </c>
+      <c r="U28" t="s">
+        <v>118</v>
+      </c>
+      <c r="V28" t="s">
+        <v>263</v>
+      </c>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>224</v>
+      </c>
+      <c r="R29" t="s">
+        <v>217</v>
+      </c>
+      <c r="S29" t="s">
+        <v>162</v>
+      </c>
+      <c r="T29" t="s">
+        <v>129</v>
+      </c>
+      <c r="U29" t="s">
+        <v>230</v>
+      </c>
+      <c r="V29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>127</v>
+      </c>
+      <c r="R30" t="s">
+        <v>262</v>
+      </c>
+      <c r="S30" t="s">
+        <v>131</v>
+      </c>
+      <c r="T30" t="s">
+        <v>239</v>
+      </c>
+      <c r="U30" t="s">
+        <v>146</v>
+      </c>
+      <c r="V30" t="s">
+        <v>245</v>
+      </c>
+      <c r="W30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O31" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>250</v>
+      </c>
+      <c r="R31" t="s">
+        <v>86</v>
+      </c>
+      <c r="S31" t="s">
+        <v>240</v>
+      </c>
+      <c r="T31" t="s">
+        <v>117</v>
+      </c>
+      <c r="U31" t="s">
+        <v>68</v>
+      </c>
+      <c r="V31" t="s">
+        <v>187</v>
+      </c>
+      <c r="W31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" t="s">
         <v>21</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" t="s">
+        <v>29</v>
+      </c>
+      <c r="W32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>73</v>
+      </c>
+      <c r="R33" t="s">
+        <v>135</v>
+      </c>
+      <c r="S33" t="s">
+        <v>105</v>
+      </c>
+      <c r="T33" t="s">
+        <v>167</v>
+      </c>
+      <c r="U33" t="s">
+        <v>141</v>
+      </c>
+      <c r="V33" t="s">
+        <v>158</v>
+      </c>
+      <c r="W33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" t="s">
+        <v>128</v>
+      </c>
+      <c r="P34" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>235</v>
+      </c>
+      <c r="R34" t="s">
+        <v>194</v>
+      </c>
+      <c r="S34" t="s">
+        <v>91</v>
+      </c>
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
+      <c r="U34" t="s">
+        <v>182</v>
+      </c>
+      <c r="V34" t="s">
+        <v>234</v>
+      </c>
+      <c r="W34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" t="s">
+        <v>137</v>
+      </c>
+      <c r="O35" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>125</v>
+      </c>
+      <c r="R35" t="s">
+        <v>66</v>
+      </c>
+      <c r="S35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T35" t="s">
+        <v>255</v>
+      </c>
+      <c r="U35" t="s">
+        <v>136</v>
+      </c>
+      <c r="V35" t="s">
+        <v>81</v>
+      </c>
+      <c r="W35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" t="s">
+        <v>218</v>
+      </c>
+      <c r="O36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
         <v>27</v>
       </c>
-      <c r="P19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="M37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
         <v>37</v>
       </c>
-      <c r="M20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="P37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37" t="s">
+        <v>18</v>
+      </c>
+      <c r="S37" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" t="s">
         <v>35</v>
       </c>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" t="s">
-        <v>17</v>
+      <c r="V37" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="M40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>83</v>
+      </c>
+      <c r="O40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="M41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable/Copy of output.xlsx
+++ b/Timetable/Copy of output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opsi Jay\Documents\Visual Studio 2017\Projects\Timetable\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE3A5EC1-88D4-4CA7-8676-56FA000ABA7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6653E969-0AAD-4E17-A0B0-BF1267FAD440}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="314">
   <si>
     <t>Monday</t>
   </si>
@@ -75,9 +75,6 @@
     <t>lt026</t>
   </si>
   <si>
-    <t>lab203</t>
-  </si>
-  <si>
     <t>ssg509</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>mst411</t>
   </si>
   <si>
-    <t>law411</t>
-  </si>
-  <si>
     <t>mic212</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>agr431</t>
   </si>
   <si>
-    <t>csc522</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>lab102</t>
-  </si>
-  <si>
     <t>z123</t>
   </si>
   <si>
@@ -192,18 +180,6 @@
     <t>f002</t>
   </si>
   <si>
-    <t>e304(l)</t>
-  </si>
-  <si>
-    <t>lab204</t>
-  </si>
-  <si>
-    <t>lab332</t>
-  </si>
-  <si>
-    <t>MyLab</t>
-  </si>
-  <si>
     <t>cbg101</t>
   </si>
   <si>
@@ -820,6 +796,177 @@
   </si>
   <si>
     <t>mbg427</t>
+  </si>
+  <si>
+    <t>nlt-d</t>
+  </si>
+  <si>
+    <t>nlt-c</t>
+  </si>
+  <si>
+    <t>nlc-c-x</t>
+  </si>
+  <si>
+    <t>nlt-a</t>
+  </si>
+  <si>
+    <t>lab102(Lab)</t>
+  </si>
+  <si>
+    <t>nlt-b</t>
+  </si>
+  <si>
+    <t>z213</t>
+  </si>
+  <si>
+    <t>e304(l)(Lab)</t>
+  </si>
+  <si>
+    <t>lab203(Lab)</t>
+  </si>
+  <si>
+    <t>nlt-e-x</t>
+  </si>
+  <si>
+    <t>lab332(Lab)</t>
+  </si>
+  <si>
+    <t>lab204(Lab)</t>
+  </si>
+  <si>
+    <t>bcm320</t>
+  </si>
+  <si>
+    <t>mtx500(Lab)</t>
+  </si>
+  <si>
+    <t>phs100(Lab)</t>
+  </si>
+  <si>
+    <t>chm100(Lab)</t>
+  </si>
+  <si>
+    <t>ssg501(Lab)</t>
+  </si>
+  <si>
+    <t>mtx402</t>
+  </si>
+  <si>
+    <t>eng527</t>
+  </si>
+  <si>
+    <t>eng300(Lab)</t>
+  </si>
+  <si>
+    <t>eng100(Lab)</t>
+  </si>
+  <si>
+    <t>bcm100(Lab)</t>
+  </si>
+  <si>
+    <t>mtx300(Lab)</t>
+  </si>
+  <si>
+    <t>bcm400(Lab)</t>
+  </si>
+  <si>
+    <t>bcm428</t>
+  </si>
+  <si>
+    <t>mbg300</t>
+  </si>
+  <si>
+    <t>mbg400(Lab)</t>
+  </si>
+  <si>
+    <t>mtx100(Lab)</t>
+  </si>
+  <si>
+    <t>eng500(Lab)</t>
+  </si>
+  <si>
+    <t>mtx520</t>
+  </si>
+  <si>
+    <t>phs220</t>
+  </si>
+  <si>
+    <t>eng320</t>
+  </si>
+  <si>
+    <t>mat300</t>
+  </si>
+  <si>
+    <t>chm416</t>
+  </si>
+  <si>
+    <t>fre320</t>
+  </si>
+  <si>
+    <t>bcm200(Lab)</t>
+  </si>
+  <si>
+    <t>chm400(Lab)</t>
+  </si>
+  <si>
+    <t>mtx200(Lab)</t>
+  </si>
+  <si>
+    <t>mbg202</t>
+  </si>
+  <si>
+    <t>chm427</t>
+  </si>
+  <si>
+    <t>bcm500(Lab)</t>
+  </si>
+  <si>
+    <t>cbg120</t>
+  </si>
+  <si>
+    <t>eng400(Lab)</t>
+  </si>
+  <si>
+    <t>eng200(Lab)</t>
+  </si>
+  <si>
+    <t>fre128</t>
+  </si>
+  <si>
+    <t>mat302</t>
+  </si>
+  <si>
+    <t>mat400</t>
+  </si>
+  <si>
+    <t>mat328</t>
+  </si>
+  <si>
+    <t>phs200(Lab)</t>
+  </si>
+  <si>
+    <t>chm200(Lab)</t>
+  </si>
+  <si>
+    <t>phs300(Lab)</t>
+  </si>
+  <si>
+    <t>chm300(Lab)</t>
+  </si>
+  <si>
+    <t>phs400(Lab)</t>
+  </si>
+  <si>
+    <t>mbg420</t>
+  </si>
+  <si>
+    <t>bcm300(Lab)</t>
+  </si>
+  <si>
+    <t>mtx400(Lab)</t>
+  </si>
+  <si>
+    <t>phs308(Lab)</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1148,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -1248,1418 +1395,1742 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="O3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S3" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V3" t="s">
+        <v>304</v>
+      </c>
+      <c r="W3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="R3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S3" t="s">
-        <v>189</v>
-      </c>
-      <c r="T3" t="s">
-        <v>195</v>
-      </c>
-      <c r="U3" t="s">
-        <v>201</v>
-      </c>
-      <c r="V3" t="s">
-        <v>139</v>
-      </c>
-      <c r="W3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>89</v>
-      </c>
       <c r="AB3" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="AC3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="AD3" t="s">
         <v>162</v>
       </c>
       <c r="AE3" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="AF3" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="AH3" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="AI3" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>219</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="R4" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>289</v>
+      </c>
+      <c r="U4" t="s">
+        <v>302</v>
+      </c>
+      <c r="V4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W4" t="s">
+        <v>251</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="AB4" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="AC4" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>126</v>
       </c>
       <c r="AE4" t="s">
-        <v>116</v>
+        <v>219</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O5" t="s">
         <v>155</v>
       </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>163</v>
-      </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="Q5" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="R5" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="S5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="T5" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="U5" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="V5" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="W5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="Z5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="AB5" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="AE5" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="AG5" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="AH5" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="AI5" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="Q6" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="R6" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="S6" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="T6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="U6" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="V6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="W6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Y6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AA6" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="AB6" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="AD6" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="AE6" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="AF6" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AH6" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="AI6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="R7" t="s">
+        <v>154</v>
+      </c>
+      <c r="S7" t="s">
+        <v>224</v>
+      </c>
+      <c r="T7" t="s">
+        <v>218</v>
+      </c>
+      <c r="U7" t="s">
+        <v>226</v>
+      </c>
+      <c r="V7" t="s">
+        <v>112</v>
+      </c>
+      <c r="W7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC7" t="s">
         <v>72</v>
       </c>
-      <c r="S7" t="s">
-        <v>109</v>
-      </c>
-      <c r="T7" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" t="s">
-        <v>203</v>
-      </c>
-      <c r="V7" t="s">
-        <v>120</v>
-      </c>
-      <c r="W7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>226</v>
-      </c>
       <c r="AD7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AE7" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AH7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="AI7" t="s">
-        <v>118</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
         <v>130</v>
       </c>
-      <c r="I8" t="s">
-        <v>138</v>
-      </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="U8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="W8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="AA8" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="AD8" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AF8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG8" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="AH8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AI8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>172</v>
+      </c>
+      <c r="R9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9" t="s">
+        <v>201</v>
+      </c>
+      <c r="W9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>164</v>
-      </c>
-      <c r="O9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH9" t="s">
         <v>192</v>
       </c>
-      <c r="T9" t="s">
-        <v>198</v>
-      </c>
-      <c r="U9" t="s">
-        <v>204</v>
-      </c>
-      <c r="V9" t="s">
-        <v>209</v>
-      </c>
-      <c r="W9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>238</v>
-      </c>
       <c r="AI9" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="Q10" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="R10" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="S10" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="V10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="W10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Y10" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="Z10" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="AA10" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="AB10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="AD10" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="AE10" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="AF10" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="AG10" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="s">
         <v>239</v>
       </c>
       <c r="AI10" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>151</v>
+      </c>
+      <c r="I11" t="s">
+        <v>290</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="T11" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="Y11" t="s">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="Z11" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AA11" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="AB11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="AD11" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="AE11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s">
-        <v>193</v>
+        <v>124</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>206</v>
+      </c>
+      <c r="R12" t="s">
         <v>124</v>
       </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" t="s">
-        <v>166</v>
-      </c>
-      <c r="O12" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" t="s">
-        <v>101</v>
-      </c>
       <c r="S12" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="U12" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="V12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="W12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Y12" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AA12" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="AB12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="AD12" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="AE12" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="AF12" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="AG12" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="AH12" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="AI12" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="I13" t="s">
+        <v>291</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="s">
+        <v>260</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" t="s">
+        <v>296</v>
+      </c>
+      <c r="S13" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
+      <c r="AD13" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH13" t="s">
         <v>152</v>
       </c>
-      <c r="K13" t="s">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>181</v>
-      </c>
-      <c r="R13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" t="s">
-        <v>194</v>
-      </c>
-      <c r="T13" t="s">
-        <v>200</v>
-      </c>
-      <c r="U13" t="s">
-        <v>206</v>
-      </c>
-      <c r="V13" t="s">
-        <v>211</v>
-      </c>
-      <c r="W13" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>180</v>
-      </c>
       <c r="AI13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q14" t="s">
         <v>105</v>
       </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="R14" t="s">
+        <v>177</v>
+      </c>
+      <c r="S14" t="s">
+        <v>235</v>
+      </c>
+      <c r="T14" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI14" t="s">
         <v>126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" t="s">
-        <v>172</v>
-      </c>
-      <c r="P14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>182</v>
-      </c>
-      <c r="R14" t="s">
-        <v>188</v>
-      </c>
-      <c r="S14" t="s">
-        <v>107</v>
-      </c>
-      <c r="T14" t="s">
-        <v>118</v>
-      </c>
-      <c r="U14" t="s">
-        <v>207</v>
-      </c>
-      <c r="V14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W14" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>214</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>290</v>
+      </c>
+      <c r="R15" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" t="s">
+        <v>253</v>
+      </c>
+      <c r="T15" t="s">
+        <v>286</v>
       </c>
       <c r="Y15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Z15" t="s">
-        <v>218</v>
+        <v>170</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>203</v>
+      </c>
+      <c r="R16" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" t="s">
+        <v>241</v>
+      </c>
+      <c r="U16" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" t="s">
+        <v>246</v>
+      </c>
+      <c r="T17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" t="s">
+        <v>285</v>
+      </c>
+      <c r="M18" t="s">
+        <v>261</v>
+      </c>
+      <c r="N18" t="s">
+        <v>292</v>
+      </c>
+      <c r="O18" t="s">
+        <v>293</v>
+      </c>
+      <c r="P18" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>271</v>
+      </c>
+      <c r="R18" t="s">
+        <v>297</v>
+      </c>
+      <c r="S18" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s">
+        <v>262</v>
+      </c>
+      <c r="N19" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" t="s">
+        <v>275</v>
+      </c>
+      <c r="P19" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>93</v>
+      </c>
+      <c r="R19" t="s">
+        <v>187</v>
+      </c>
+      <c r="S19" t="s">
+        <v>202</v>
+      </c>
+      <c r="T19" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="s">
+        <v>263</v>
+      </c>
+      <c r="N20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" t="s">
+        <v>298</v>
+      </c>
+      <c r="S20" t="s">
+        <v>269</v>
+      </c>
+      <c r="T20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" t="s">
+        <v>284</v>
+      </c>
+      <c r="M21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" t="s">
-        <v>27</v>
-      </c>
-      <c r="T16" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
         <v>40</v>
-      </c>
-      <c r="M18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
       </c>
       <c r="H23" t="s">
         <v>7</v>
@@ -2673,23 +3144,26 @@
       <c r="K23" t="s">
         <v>10</v>
       </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
       <c r="N23" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O23" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R23" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s">
         <v>7</v>
@@ -2703,923 +3177,1577 @@
       <c r="W23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" t="s">
+        <v>246</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s">
+        <v>266</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s">
+        <v>113</v>
+      </c>
+      <c r="U24" t="s">
+        <v>220</v>
+      </c>
+      <c r="V24" t="s">
+        <v>219</v>
+      </c>
+      <c r="W24" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" t="s">
+        <v>267</v>
+      </c>
+      <c r="N25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O25" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" t="s">
+        <v>149</v>
+      </c>
+      <c r="R25" t="s">
+        <v>156</v>
+      </c>
+      <c r="U25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" t="s">
+        <v>268</v>
+      </c>
+      <c r="N26" t="s">
+        <v>276</v>
+      </c>
+      <c r="O26" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>116</v>
+      </c>
+      <c r="R26" t="s">
+        <v>299</v>
+      </c>
+      <c r="S26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" t="s">
+        <v>213</v>
+      </c>
+      <c r="U26" t="s">
+        <v>87</v>
+      </c>
+      <c r="V26" t="s">
+        <v>137</v>
+      </c>
+      <c r="W26" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
         <v>76</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" t="s">
+        <v>211</v>
+      </c>
+      <c r="P27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>90</v>
+      </c>
+      <c r="R27" t="s">
+        <v>147</v>
+      </c>
+      <c r="S27" t="s">
+        <v>167</v>
+      </c>
+      <c r="T27" t="s">
+        <v>96</v>
+      </c>
+      <c r="U27" t="s">
+        <v>102</v>
+      </c>
+      <c r="V27" t="s">
+        <v>207</v>
+      </c>
+      <c r="W27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" t="s">
+        <v>156</v>
+      </c>
+      <c r="S28" t="s">
+        <v>218</v>
+      </c>
+      <c r="T28" t="s">
+        <v>223</v>
+      </c>
+      <c r="U28" t="s">
+        <v>110</v>
+      </c>
+      <c r="V28" t="s">
+        <v>255</v>
+      </c>
+      <c r="W28" t="s">
         <v>229</v>
       </c>
-      <c r="F24" t="s">
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" t="s">
+        <v>9</v>
+      </c>
+      <c r="W29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" t="s">
+        <v>120</v>
+      </c>
+      <c r="T30" t="s">
+        <v>177</v>
+      </c>
+      <c r="U30" t="s">
+        <v>183</v>
+      </c>
+      <c r="V30" t="s">
+        <v>200</v>
+      </c>
+      <c r="W30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>310</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>178</v>
+      </c>
+      <c r="R31" t="s">
+        <v>110</v>
+      </c>
+      <c r="S31" t="s">
+        <v>149</v>
+      </c>
+      <c r="T31" t="s">
+        <v>114</v>
+      </c>
+      <c r="U31" t="s">
+        <v>243</v>
+      </c>
+      <c r="V31" t="s">
+        <v>224</v>
+      </c>
+      <c r="W31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" t="s">
+        <v>257</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" t="s">
+        <v>171</v>
+      </c>
+      <c r="P32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>93</v>
+      </c>
+      <c r="R32" t="s">
+        <v>242</v>
+      </c>
+      <c r="S32" t="s">
+        <v>251</v>
+      </c>
+      <c r="T32" t="s">
         <v>239</v>
       </c>
-      <c r="G24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" t="s">
-        <v>249</v>
-      </c>
-      <c r="J24" t="s">
-        <v>254</v>
-      </c>
-      <c r="K24" t="s">
-        <v>241</v>
-      </c>
-      <c r="M24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" t="s">
-        <v>189</v>
-      </c>
-      <c r="P24" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>222</v>
-      </c>
-      <c r="R24" t="s">
-        <v>106</v>
-      </c>
-      <c r="S24" t="s">
-        <v>225</v>
-      </c>
-      <c r="T24" t="s">
-        <v>121</v>
-      </c>
-      <c r="U24" t="s">
-        <v>228</v>
-      </c>
-      <c r="V24" t="s">
-        <v>227</v>
-      </c>
-      <c r="W24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" t="s">
-        <v>138</v>
-      </c>
-      <c r="P25" t="s">
-        <v>157</v>
-      </c>
-      <c r="R25" t="s">
-        <v>164</v>
-      </c>
-      <c r="U25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" t="s">
-        <v>255</v>
-      </c>
-      <c r="K26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" t="s">
-        <v>124</v>
-      </c>
-      <c r="O26" t="s">
-        <v>168</v>
-      </c>
-      <c r="P26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>124</v>
-      </c>
-      <c r="R26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S26" t="s">
-        <v>74</v>
-      </c>
-      <c r="T26" t="s">
-        <v>221</v>
-      </c>
-      <c r="U26" t="s">
-        <v>95</v>
-      </c>
-      <c r="V26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" t="s">
-        <v>250</v>
-      </c>
-      <c r="J27" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" t="s">
-        <v>197</v>
-      </c>
-      <c r="M27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N27" t="s">
-        <v>100</v>
-      </c>
-      <c r="O27" t="s">
-        <v>219</v>
-      </c>
-      <c r="P27" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>98</v>
-      </c>
-      <c r="R27" t="s">
-        <v>155</v>
-      </c>
-      <c r="S27" t="s">
-        <v>175</v>
-      </c>
-      <c r="T27" t="s">
-        <v>104</v>
-      </c>
-      <c r="U27" t="s">
-        <v>110</v>
-      </c>
-      <c r="V27" t="s">
-        <v>215</v>
-      </c>
-      <c r="W27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
-        <v>251</v>
-      </c>
-      <c r="J28" t="s">
-        <v>256</v>
-      </c>
-      <c r="K28" t="s">
-        <v>259</v>
-      </c>
-      <c r="M28" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" t="s">
-        <v>217</v>
-      </c>
-      <c r="O28" t="s">
-        <v>89</v>
-      </c>
-      <c r="P28" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28" t="s">
-        <v>164</v>
-      </c>
-      <c r="S28" t="s">
-        <v>226</v>
-      </c>
-      <c r="T28" t="s">
-        <v>231</v>
-      </c>
-      <c r="U28" t="s">
-        <v>118</v>
-      </c>
-      <c r="V28" t="s">
-        <v>263</v>
-      </c>
-      <c r="W28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" t="s">
-        <v>260</v>
-      </c>
-      <c r="M29" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O29" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>224</v>
-      </c>
-      <c r="R29" t="s">
-        <v>217</v>
-      </c>
-      <c r="S29" t="s">
-        <v>162</v>
-      </c>
-      <c r="T29" t="s">
-        <v>129</v>
-      </c>
-      <c r="U29" t="s">
-        <v>230</v>
-      </c>
-      <c r="V29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" t="s">
-        <v>225</v>
-      </c>
-      <c r="H30" t="s">
-        <v>247</v>
-      </c>
-      <c r="I30" t="s">
-        <v>252</v>
-      </c>
-      <c r="J30" t="s">
-        <v>201</v>
-      </c>
-      <c r="K30" t="s">
-        <v>81</v>
-      </c>
-      <c r="M30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" t="s">
-        <v>115</v>
-      </c>
-      <c r="O30" t="s">
-        <v>103</v>
-      </c>
-      <c r="P30" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>127</v>
-      </c>
-      <c r="R30" t="s">
-        <v>262</v>
-      </c>
-      <c r="S30" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" t="s">
-        <v>239</v>
-      </c>
-      <c r="U30" t="s">
-        <v>146</v>
-      </c>
-      <c r="V30" t="s">
-        <v>245</v>
-      </c>
-      <c r="W30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" t="s">
-        <v>166</v>
-      </c>
-      <c r="H31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" t="s">
-        <v>195</v>
-      </c>
-      <c r="J31" t="s">
-        <v>257</v>
-      </c>
-      <c r="K31" t="s">
-        <v>82</v>
-      </c>
-      <c r="M31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O31" t="s">
-        <v>186</v>
-      </c>
-      <c r="P31" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>250</v>
-      </c>
-      <c r="R31" t="s">
-        <v>86</v>
-      </c>
-      <c r="S31" t="s">
-        <v>240</v>
-      </c>
-      <c r="T31" t="s">
-        <v>117</v>
-      </c>
-      <c r="U31" t="s">
-        <v>68</v>
-      </c>
-      <c r="V31" t="s">
-        <v>187</v>
-      </c>
-      <c r="W31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" t="s">
-        <v>67</v>
-      </c>
-      <c r="O32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>79</v>
-      </c>
-      <c r="R32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S32" t="s">
-        <v>22</v>
-      </c>
-      <c r="T32" t="s">
-        <v>25</v>
-      </c>
       <c r="U32" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="V32" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" t="s">
         <v>119</v>
       </c>
-      <c r="I33" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" t="s">
-        <v>236</v>
-      </c>
-      <c r="K33" t="s">
-        <v>261</v>
-      </c>
-      <c r="M33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" t="s">
-        <v>220</v>
-      </c>
-      <c r="O33" t="s">
-        <v>88</v>
-      </c>
       <c r="P33" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="Q33" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="R33" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="S33" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="T33" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="U33" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="W33" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" t="s">
+        <v>298</v>
+      </c>
+      <c r="I34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="s">
         <v>154</v>
       </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="Q34" t="s">
+        <v>219</v>
+      </c>
+      <c r="R34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T34" t="s">
         <v>240</v>
       </c>
-      <c r="H34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" t="s">
-        <v>258</v>
-      </c>
-      <c r="K34" t="s">
-        <v>69</v>
-      </c>
-      <c r="M34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" t="s">
-        <v>200</v>
-      </c>
-      <c r="O34" t="s">
-        <v>128</v>
-      </c>
-      <c r="P34" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>235</v>
-      </c>
-      <c r="R34" t="s">
-        <v>194</v>
-      </c>
-      <c r="S34" t="s">
-        <v>91</v>
-      </c>
-      <c r="T34" t="s">
-        <v>84</v>
-      </c>
       <c r="U34" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="V34" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="W34" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" t="s">
+        <v>185</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>117</v>
+      </c>
+      <c r="R35" t="s">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s">
+        <v>126</v>
+      </c>
+      <c r="T35" t="s">
+        <v>247</v>
+      </c>
+      <c r="U35" t="s">
+        <v>128</v>
+      </c>
+      <c r="V35" t="s">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s">
         <v>125</v>
-      </c>
-      <c r="F35" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" t="s">
-        <v>253</v>
-      </c>
-      <c r="J35" t="s">
-        <v>242</v>
-      </c>
-      <c r="K35" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N35" t="s">
-        <v>137</v>
-      </c>
-      <c r="O35" t="s">
-        <v>244</v>
-      </c>
-      <c r="P35" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>125</v>
-      </c>
-      <c r="R35" t="s">
-        <v>66</v>
-      </c>
-      <c r="S35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T35" t="s">
-        <v>255</v>
-      </c>
-      <c r="U35" t="s">
-        <v>136</v>
-      </c>
-      <c r="V35" t="s">
-        <v>81</v>
-      </c>
-      <c r="W35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>177</v>
+      </c>
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" t="s">
+        <v>85</v>
       </c>
       <c r="M36" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N36" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="O36" t="s">
-        <v>242</v>
+        <v>162</v>
+      </c>
+      <c r="P36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>208</v>
+      </c>
+      <c r="R36" t="s">
+        <v>190</v>
+      </c>
+      <c r="S36" t="s">
+        <v>147</v>
+      </c>
+      <c r="T36" t="s">
+        <v>196</v>
+      </c>
+      <c r="U36" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>125</v>
       </c>
       <c r="M37" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="O37" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="P37" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="Q37" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="R37" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="S37" t="s">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="T37" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="U37" t="s">
+        <v>168</v>
+      </c>
+      <c r="V37" t="s">
         <v>35</v>
       </c>
-      <c r="V37" t="s">
-        <v>36</v>
-      </c>
       <c r="W37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
       </c>
       <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" t="s">
+        <v>259</v>
+      </c>
+      <c r="N38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" t="s">
+        <v>140</v>
+      </c>
+      <c r="P38" t="s">
         <v>78</v>
       </c>
-      <c r="M38" t="s">
-        <v>56</v>
-      </c>
-      <c r="N38" t="s">
-        <v>94</v>
+      <c r="Q38" t="s">
+        <v>191</v>
+      </c>
+      <c r="R38" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" t="s">
+        <v>144</v>
+      </c>
+      <c r="T38" t="s">
+        <v>131</v>
+      </c>
+      <c r="U38" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
       </c>
       <c r="M39" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>81</v>
+      </c>
+      <c r="O39" t="s">
+        <v>216</v>
+      </c>
+      <c r="P39" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>80</v>
+      </c>
+      <c r="R39" t="s">
+        <v>234</v>
+      </c>
+      <c r="S39" t="s">
+        <v>175</v>
+      </c>
+      <c r="T39" t="s">
+        <v>207</v>
+      </c>
+      <c r="U39" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>260</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>302</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" t="s">
+        <v>170</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="N40" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>206</v>
+      </c>
+      <c r="P40" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>132</v>
+      </c>
+      <c r="R40" t="s">
+        <v>159</v>
+      </c>
+      <c r="S40" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" t="s">
+        <v>184</v>
+      </c>
+      <c r="U40" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" t="s">
+        <v>287</v>
+      </c>
+      <c r="P41" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>137</v>
+      </c>
+      <c r="R41" t="s">
+        <v>113</v>
+      </c>
+      <c r="S41" t="s">
+        <v>247</v>
+      </c>
+      <c r="T41" t="s">
+        <v>143</v>
+      </c>
+      <c r="U41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="M42" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" t="s">
+        <v>212</v>
+      </c>
+      <c r="O42" t="s">
+        <v>170</v>
+      </c>
+      <c r="P42" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>227</v>
+      </c>
+      <c r="R42" t="s">
+        <v>245</v>
+      </c>
+      <c r="S42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T42" t="s">
+        <v>125</v>
+      </c>
+      <c r="U42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>146</v>
+      </c>
+      <c r="O43" t="s">
+        <v>232</v>
+      </c>
+      <c r="P43" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>156</v>
+      </c>
+      <c r="R43" t="s">
+        <v>282</v>
+      </c>
+      <c r="S43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T43" t="s">
+        <v>112</v>
+      </c>
+      <c r="U43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+      <c r="M44" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>229</v>
+      </c>
+      <c r="R44" t="s">
+        <v>141</v>
+      </c>
+      <c r="S44" t="s">
+        <v>133</v>
+      </c>
+      <c r="T44" t="s">
+        <v>86</v>
+      </c>
+      <c r="U44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" t="s">
+        <v>285</v>
+      </c>
+      <c r="M45" t="s">
+        <v>261</v>
+      </c>
+      <c r="N45" t="s">
+        <v>270</v>
+      </c>
+      <c r="P45" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="D41" t="s">
-        <v>157</v>
-      </c>
-      <c r="M41" t="s">
-        <v>58</v>
-      </c>
-      <c r="N41" t="s">
-        <v>185</v>
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="M46" t="s">
+        <v>262</v>
+      </c>
+      <c r="N46" t="s">
+        <v>72</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>230</v>
+      </c>
+      <c r="R46" t="s">
+        <v>142</v>
+      </c>
+      <c r="S46" t="s">
+        <v>174</v>
+      </c>
+      <c r="T46" t="s">
+        <v>281</v>
+      </c>
+      <c r="U46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" t="s">
+        <v>254</v>
+      </c>
+      <c r="M47" t="s">
+        <v>263</v>
+      </c>
+      <c r="N47" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>179</v>
+      </c>
+      <c r="R47" t="s">
+        <v>161</v>
+      </c>
+      <c r="S47" t="s">
+        <v>304</v>
+      </c>
+      <c r="T47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>308</v>
+      </c>
+      <c r="M48" t="s">
+        <v>264</v>
+      </c>
+      <c r="N48" t="s">
+        <v>272</v>
+      </c>
+      <c r="P48" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>265</v>
+      </c>
+      <c r="M49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" t="s">
+        <v>266</v>
+      </c>
+      <c r="N51" t="s">
+        <v>59</v>
+      </c>
+      <c r="O51" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>273</v>
+      </c>
+      <c r="M52" t="s">
+        <v>267</v>
+      </c>
+      <c r="N52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" t="s">
+        <v>292</v>
+      </c>
+      <c r="M53" t="s">
+        <v>268</v>
+      </c>
+      <c r="O53" t="s">
+        <v>312</v>
+      </c>
+      <c r="P53" t="s">
+        <v>277</v>
+      </c>
+      <c r="R53" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
